--- a/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
+++ b/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
@@ -854,6 +854,454 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 This is a human-readable summary of (and not a substitute for) the license. _x000d_
 _x000d_
 _x000d_
@@ -982,6 +1430,902 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Disclaimer. au_x000d_
 _x000d_
 _x000d_
@@ -1046,6 +2390,454 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 You are free to:_x000d_
 _x000d_
 _x000d_
@@ -1174,6 +2966,902 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Share — copy and redistribute the material in any medium or format_x000d_
 _x000d_
 _x000d_
@@ -1238,6 +3926,454 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Adapt — remix, transform, and build upon the material_x000d_
 _x000d_
 _x000d_
@@ -1302,6 +4438,454 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 for any purpose, even commercially._x000d_
 _x000d_
 _x000d_
@@ -1366,6 +4950,454 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
  This license is acceptable for Free Cultural Works._x000d_
 _x000d_
 _x000d_
@@ -1430,6 +5462,454 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 The licensor cannot revoke these freedoms as long as you follow the license terms._x000d_
 _x000d_
 _x000d_
@@ -1494,6 +5974,454 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Under the following terms:_x000d_
 _x000d_
 _x000d_
@@ -1622,6 +6550,902 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Attribution — You must give appropriate credit, provide a link to the license, and indicate if changes were made. You may do so in any reasonable manner, but not in any way that suggests the licensor endorses you or your use._x000d_
 _x000d_
 _x000d_
@@ -1686,6 +7510,454 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 No additional restrictions — You may not apply legal terms or technological measures that legally restrict others from doing anything the license permits._x000d_
 _x000d_
 _x000d_
@@ -1750,6 +8022,454 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Notices:_x000d_
 _x000d_
 _x000d_
@@ -1878,7 +8598,1351 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 You do not have to comply with the license for elements of the material in the public domain or where your use is permitted by an applicable exception or limitation._x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 _x000d_
 _x000d_
 _x000d_

--- a/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
+++ b/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
@@ -382,7 +382,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Collection"/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +400,7 @@
         <v>ID</v>
       </c>
       <c r="B2" t="str">
-        <v>http://dx.doi.org/10.1016/something</v>
+        <v>http://dx.doi.org/10.1016/this_is_an_example_not_a_real_DOI</v>
       </c>
     </row>
     <row r="3">
@@ -413,34 +413,34 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>RELATION:Organisation</v>
+        <v>Description</v>
       </c>
       <c r="B4" t="str">
-        <v>Sydney University Speleological Society</v>
+        <v>Sketchsheets and data from the Glop Pot cave survey</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Description</v>
+        <v>RELATION:Contact</v>
       </c>
       <c r="B5" t="str">
-        <v>Sketchsheets and data from the Glop Pot cave survey</v>
+        <v>Mike Lake</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>RELATION:Contact</v>
+        <v>RELATION:ContentLocation</v>
       </c>
       <c r="B6" t="str">
-        <v>Mike Lake</v>
+        <v>Glop Pot</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>RELATION:ContentLocation</v>
+        <v>RELATION:Creator</v>
       </c>
       <c r="B7" t="str">
-        <v>Glop Pot</v>
+        <v>Mike Lake</v>
       </c>
     </row>
     <row r="8">
@@ -448,7 +448,7 @@
         <v>RELATION:Creator</v>
       </c>
       <c r="B8" t="str">
-        <v>Mike Lake</v>
+        <v>Keir Vaughan-Taylor</v>
       </c>
     </row>
     <row r="9">
@@ -456,7 +456,7 @@
         <v>RELATION:Creator</v>
       </c>
       <c r="B9" t="str">
-        <v>Keir Vaughan-Taylor</v>
+        <v>Andreas Klocker</v>
       </c>
     </row>
     <row r="10">
@@ -464,34 +464,29 @@
         <v>RELATION:Creator</v>
       </c>
       <c r="B10" t="str">
-        <v>Andreas Klocker</v>
+        <v>Phil Maynard</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>RELATION:Creator</v>
+        <v>RELATION:Publisher</v>
       </c>
       <c r="B11" t="str">
-        <v>Phil Maynard</v>
+        <v>Sydney University Speleological Society</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Publisher</v>
-      </c>
-      <c r="B12" t="str">
-        <v>University of Technology Sydney</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
         <v>DatePublished</v>
       </c>
-      <c r="B13">
+      <c r="B12">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
 </worksheet>
 </file>
@@ -723,13 +718,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>EXTENSION:</v>
+        <v>extension</v>
       </c>
       <c r="B1" t="str">
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>MIME:</v>
+        <v>mime</v>
       </c>
       <c r="D1" t="str">
         <v>Description</v>
@@ -1302,6 +1297,518 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 This is a human-readable summary of (and not a substitute for) the license. _x000d_
 _x000d_
 _x000d_
@@ -2326,6 +2833,1030 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Disclaimer. au_x000d_
 _x000d_
 _x000d_
@@ -2838,6 +4369,518 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 You are free to:_x000d_
 _x000d_
 _x000d_
@@ -3862,6 +5905,1030 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Share — copy and redistribute the material in any medium or format_x000d_
 _x000d_
 _x000d_
@@ -4374,6 +7441,518 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Adapt — remix, transform, and build upon the material_x000d_
 _x000d_
 _x000d_
@@ -4886,6 +8465,518 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 for any purpose, even commercially._x000d_
 _x000d_
 _x000d_
@@ -5398,6 +9489,518 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
  This license is acceptable for Free Cultural Works._x000d_
 _x000d_
 _x000d_
@@ -5910,6 +10513,518 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 The licensor cannot revoke these freedoms as long as you follow the license terms._x000d_
 _x000d_
 _x000d_
@@ -6422,6 +11537,518 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Under the following terms:_x000d_
 _x000d_
 _x000d_
@@ -7446,6 +13073,1030 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Attribution — You must give appropriate credit, provide a link to the license, and indicate if changes were made. You may do so in any reasonable manner, but not in any way that suggests the licensor endorses you or your use._x000d_
 _x000d_
 _x000d_
@@ -7958,6 +14609,518 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 No additional restrictions — You may not apply legal terms or technological measures that legally restrict others from doing anything the license permits._x000d_
 _x000d_
 _x000d_
@@ -8470,6 +15633,518 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 Notices:_x000d_
 _x000d_
 _x000d_
@@ -9494,7 +17169,1543 @@
 _x000d_
 _x000d_
 _x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 You do not have to comply with the license for elements of the material in the public domain or where your use is permitted by an applicable exception or limitation._x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
 _x000d_
 _x000d_
 _x000d_
@@ -10020,7 +19231,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Organizations"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10033,23 +19244,17 @@
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>URL</v>
-      </c>
-      <c r="D1" t="str">
         <v>TYPE:</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SUSS</v>
+        <v>https://suss.caves.org.au/</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve">Sydney University Speleological Society </v>
+        <v>Sydney University Speleological Society</v>
       </c>
       <c r="C2" t="str">
-        <v>https://suss.caves.org.au/</v>
-      </c>
-      <c r="D2" t="str">
         <v>Organization</v>
       </c>
     </row>

--- a/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
+++ b/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
@@ -1,7 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/124411/Dropbox/calcyte.js/test_data/Glop_Pot/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2EA5F41F-45D0-1543-8FF1-5A7CADBBC1DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
     <sheet name="Files" sheetId="2" r:id="rId2"/>
@@ -11,15 +21,228 @@
     <sheet name="Licenses" sheetId="6" r:id="rId6"/>
     <sheet name="Organizations" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.1016/this_is_an_example_not_a_real_DOI</t>
+  </si>
+  <si>
+    <t>Glop Pot data</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sketchsheets and data from the Glop Pot cave survey</t>
+  </si>
+  <si>
+    <t>Mike Lake</t>
+  </si>
+  <si>
+    <t>RELATION:ContentLocation</t>
+  </si>
+  <si>
+    <t>Glop Pot</t>
+  </si>
+  <si>
+    <t>RELATION:Creator</t>
+  </si>
+  <si>
+    <t>Keir Vaughan-Taylor</t>
+  </si>
+  <si>
+    <t>Andreas Klocker</t>
+  </si>
+  <si>
+    <t>Phil Maynard</t>
+  </si>
+  <si>
+    <t>RELATION:Publisher</t>
+  </si>
+  <si>
+    <t>Sydney University Speleological Society</t>
+  </si>
+  <si>
+    <t>DatePublished</t>
+  </si>
+  <si>
+    <t>FILE:Filename</t>
+  </si>
+  <si>
+    <t>RELATION:Creator*</t>
+  </si>
+  <si>
+    <t>RELATION:License</t>
+  </si>
+  <si>
+    <t>cp7glop.svx</t>
+  </si>
+  <si>
+    <t>Survex data file for Glop Pot</t>
+  </si>
+  <si>
+    <t>CC-BY</t>
+  </si>
+  <si>
+    <t>cp7glop.ai</t>
+  </si>
+  <si>
+    <t>Illustrator file for Glop Pot</t>
+  </si>
+  <si>
+    <t>GivenName</t>
+  </si>
+  <si>
+    <t>FamilyName</t>
+  </si>
+  <si>
+    <t>TYPE:</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Keir</t>
+  </si>
+  <si>
+    <t>Vaughan-Taylor</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>keir@example.com</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0002-2038-7922</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Klocker</t>
+  </si>
+  <si>
+    <t>andreas@example.com</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0003-4953-9114</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Maynard</t>
+  </si>
+  <si>
+    <t>phil@example.com</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0003-4953-0830</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>mike.lake@uts.edu.au</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>geo&gt;TYPE:GeoCoordinates&gt;</t>
+  </si>
+  <si>
+    <t>Located in the Snowy Mountains Region of NSW, nearest town Tumut 2720</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Cooleman Plains</t>
+  </si>
+  <si>
+    <t>Latitude: -35.623592, Longitude: 148.683836</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>mime</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>.svx</t>
+  </si>
+  <si>
+    <t>Survex file</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+  </si>
+  <si>
+    <t>Survex is a multi-platform open-source cave surveying package.</t>
+  </si>
+  <si>
+    <t>https://survex.com/docs/manual/datafile.htm</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>You are free to:_x000D__x000D_
+Share — copy and redistribute the material in any medium or format_x000D__x000D_
+Adapt — remix, transform, and build upon the material_x000D__x000D_
+for any purpose, even commercially._x000D__x000D_
+ This license is acceptable for Free Cultural Works._x000D__x000D_
+The licensor cannot revoke these freedoms as long as you follow the license terms._x000D__x000D_
+Under the following terms:_x000D__x000D_
+Attribution — You must give appropriate credit, provide a link to the license, and indicate if changes were made. You may do so in any reasonable manner, but not in any way that suggests the licensor endorses you or your use._x000D__x000D_
+_x000D__x000D_
+No additional restrictions — You may not apply legal terms or technological measures that legally restrict others from doing anything the license permits._x000D__x000D_
+Notices:_x000D__x000D_
+You do not have to comply with the license for elements of the material in the public domain or where your use is permitted by an applicable exception or limitation._x000D__x000D_
+No warranties are given. The license may not give you all of the permissions necessary for your intended use. For example, other rights such as publicity, privacy, or moral rights may limit how you use the material.</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by/3.0/au/</t>
+  </si>
+  <si>
+    <t>CreativeWork</t>
+  </si>
+  <si>
+    <t>https://suss.caves.org.au/</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>RELATION:ContactPoint</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -380,104 +611,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Collection"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Value</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>https://dx.doi.org/10.1016/this_is_an_example_not_a_real_DOI</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Glop Pot data</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Sketchsheets and data from the Glop Pot cave survey</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>RELATION:Contact</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mike Lake</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>RELATION:ContentLocation</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Glop Pot</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Mike Lake</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Keir Vaughan-Taylor</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Andreas Klocker</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Phil Maynard</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>RELATION:Publisher</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Sydney University Speleological Society</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>DatePublished</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2017</v>
@@ -485,363 +719,368 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Files"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>FILE:Filename</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>RELATION:Creator*</v>
-      </c>
-      <c r="D1" t="str">
-        <v>RELATION:License</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>cp7glop.svx</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Survex data file for Glop Pot</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Phil Maynard</v>
-      </c>
-      <c r="D2" t="str">
-        <v>CC-BY</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>cp7glop.ai</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Illustrator file for Glop Pot</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Phil Maynard</v>
-      </c>
-      <c r="D3" t="str">
-        <v>CC-BY</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="People"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>GivenName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>FamilyName</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TYPE:</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Email</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Keir Vaughan-Taylor</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Keir Vaughan-Taylor</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Keir</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Vaughan-Taylor</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F2" t="str">
-        <v>keir@example.com</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>http://orcid.org/0000-0002-2038-7922</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Andreas Klocker</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Andreas</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Klocker</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F3" t="str">
-        <v>andreas@example.com</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>http://orcid.org/0000-0003-4953-9114</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Phil Maynard</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Phil</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Maynard</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F4" t="str">
-        <v>phil@example.com</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>http://orcid.org/0000-0003-4953-0830</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mike Lake</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Mike</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Lake</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F5" t="str">
-        <v>mike.lake@uts.edu.au</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Places"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>TYPE:</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Address</v>
-      </c>
-      <c r="E1" t="str">
-        <v>geo&gt;TYPE:GeoCoordinates&gt;</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Glop Pot</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Located in the Snowy Mountains Region of NSW, nearest town Tumut 2720</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Place</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Cooleman Plains</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Latitude: -35.623592, Longitude: 148.683836</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Formats"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>extension</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>mime</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="E1" t="str">
-        <v>URL</v>
-      </c>
-      <c r="F1" t="str">
-        <v>TYPE:</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>.svx</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Survex file</v>
-      </c>
-      <c r="C2" t="str">
-        <v>text/plain</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Survex is a multi-platform open-source cave surveying package.</v>
-      </c>
-      <c r="E2" t="str">
-        <v>https://survex.com/docs/manual/datafile.htm</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Format</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Licenses"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>TYPE:</v>
-      </c>
-    </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>CC-BY</v>
-      </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">You are free to:_x000d__x000d_
-Share — copy and redistribute the material in any medium or format_x000d__x000d_
-Adapt — remix, transform, and build upon the material_x000d__x000d_
-for any purpose, even commercially._x000d__x000d_
- This license is acceptable for Free Cultural Works._x000d__x000d_
-The licensor cannot revoke these freedoms as long as you follow the license terms._x000d__x000d_
-Under the following terms:_x000d__x000d_
-Attribution — You must give appropriate credit, provide a link to the license, and indicate if changes were made. You may do so in any reasonable manner, but not in any way that suggests the licensor endorses you or your use._x000d__x000d_
-_x000d__x000d_
-No additional restrictions — You may not apply legal terms or technological measures that legally restrict others from doing anything the license permits._x000d__x000d_
-Notices:_x000d__x000d_
-You do not have to comply with the license for elements of the material in the public domain or where your use is permitted by an applicable exception or limitation._x000d__x000d_
-No warranties are given. The license may not give you all of the permissions necessary for your intended use. For example, other rights such as publicity, privacy, or moral rights may limit how you use the material.</v>
-      </c>
-      <c r="C2" t="str">
-        <v>https://creativecommons.org/licenses/by/3.0/au/</v>
-      </c>
-      <c r="D2" t="str">
-        <v>CreativeWork</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Organizations"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>TYPE:</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://suss.caves.org.au/</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Sydney University Speleological Society</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Organization</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
 </worksheet>
 </file>
--- a/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
+++ b/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/124411/Dropbox/calcyte.js/test_data/Glop_Pot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2EA5F41F-45D0-1543-8FF1-5A7CADBBC1DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB16824F-EDB7-E04C-8751-346D484730DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
   <sheetPr codeName="Collection"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,7 +902,9 @@
   <sheetPr codeName="Places"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1046,7 +1048,7 @@
   <sheetPr codeName="Organizations"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
+++ b/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
@@ -494,7 +494,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Files"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -539,6 +539,21 @@
       </c>
       <c r="D3" t="str">
         <v>CC-BY</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>sftest.json</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>test.sf.json</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>test.sf.pp.json</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
+++ b/test_data/Glop_Pot/CATALOG_glop_pot.xlsx
@@ -486,7 +486,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Files"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,6 +504,9 @@
       <c r="D1" t="str">
         <v>RELATION:License</v>
       </c>
+      <c r="E1" t="str">
+        <v>*MISSING-FILE*</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -531,6 +534,30 @@
       </c>
       <c r="D3" t="str">
         <v>CC-BY</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>sftest.json</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>test.sf.json</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>test.sf.pp.json</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
